--- a/data/trans_orig/IP18B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP18B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D368457-0404-453F-BA0F-FFF21DD86D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{853FD7C5-F046-4005-92CC-785CCEBB32D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{3254C07B-CA3A-4136-A9B9-E65A26D7F097}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{71EED908-9EB9-497A-90FE-4D752DB7C195}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,189 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Médico general</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>Pediatria</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Médico general</t>
-  </si>
-  <si>
     <t>15,64%</t>
   </si>
   <si>
@@ -101,7 +278,31 @@
     <t>23,4%</t>
   </si>
   <si>
-    <t>Otros</t>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
   </si>
   <si>
     <t>8,25%</t>
@@ -131,121 +332,85 @@
     <t>9,78%</t>
   </si>
   <si>
-    <t>Pediatria</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -278,6 +443,33 @@
     <t>21,05%</t>
   </si>
   <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
     <t>3,43%</t>
   </si>
   <si>
@@ -305,198 +497,6 @@
     <t>6,59%</t>
   </si>
   <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
     <t>19,55%</t>
   </si>
   <si>
@@ -524,6 +524,33 @@
     <t>21,44%</t>
   </si>
   <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
     <t>4,23%</t>
   </si>
   <si>
@@ -548,36 +575,168 @@
     <t>6,89%</t>
   </si>
   <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
     <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2012 (Tasa respuesta: 94,57%)</t>
   </si>
   <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
     <t>15,85%</t>
   </si>
   <si>
@@ -605,6 +764,33 @@
     <t>18,6%</t>
   </si>
   <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
     <t>7,47%</t>
   </si>
   <si>
@@ -626,109 +812,82 @@
     <t>8,83%</t>
   </si>
   <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
   </si>
   <si>
     <t>11,79%</t>
@@ -758,6 +917,30 @@
     <t>15,4%</t>
   </si>
   <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
     <t>8,21%</t>
   </si>
   <si>
@@ -785,189 +968,6 @@
     <t>8,42%</t>
   </si>
   <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
     <t>15,54%</t>
   </si>
   <si>
@@ -995,6 +995,33 @@
     <t>17,54%</t>
   </si>
   <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
     <t>7,08%</t>
   </si>
   <si>
@@ -1019,36 +1046,162 @@
     <t>7,31%</t>
   </si>
   <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
     <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2015 (Tasa respuesta: 91,35%)</t>
   </si>
   <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>74,28%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
     <t>19,78%</t>
   </si>
   <si>
@@ -1073,6 +1226,30 @@
     <t>21,33%</t>
   </si>
   <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
     <t>3,76%</t>
   </si>
   <si>
@@ -1100,106 +1277,85 @@
     <t>6,52%</t>
   </si>
   <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
   </si>
   <si>
     <t>15,45%</t>
@@ -1229,6 +1385,30 @@
     <t>20,29%</t>
   </si>
   <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
     <t>4,51%</t>
   </si>
   <si>
@@ -1250,186 +1430,6 @@
     <t>7,06%</t>
   </si>
   <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
     <t>20,72%</t>
   </si>
   <si>
@@ -1457,6 +1457,33 @@
     <t>22,65%</t>
   </si>
   <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
     <t>6,02%</t>
   </si>
   <si>
@@ -1481,36 +1508,132 @@
     <t>6,3%</t>
   </si>
   <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
     <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2023 (Tasa respuesta: 17,76%)</t>
   </si>
   <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
     <t>14,21%</t>
   </si>
   <si>
@@ -1538,6 +1661,33 @@
     <t>21,28%</t>
   </si>
   <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
     <t>9,74%</t>
   </si>
   <si>
@@ -1565,106 +1715,76 @@
     <t>18,91%</t>
   </si>
   <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
   </si>
   <si>
     <t>14,39%</t>
@@ -1694,6 +1814,30 @@
     <t>22,89%</t>
   </si>
   <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>84,27%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
     <t>5,9%</t>
   </si>
   <si>
@@ -1718,150 +1862,6 @@
     <t>20,92%</t>
   </si>
   <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
     <t>17,03%</t>
   </si>
   <si>
@@ -1883,6 +1883,30 @@
     <t>9,99%</t>
   </si>
   <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>66,14%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
     <t>9,93%</t>
   </si>
   <si>
@@ -1902,30 +1926,6 @@
   </si>
   <si>
     <t>14,57%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
   </si>
 </sst>
 </file>
@@ -2317,7 +2317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD64267B-0D54-4854-A2FA-AEF2D5931BC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D3AD25-C281-461E-A02A-B702BF0118F5}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2435,10 +2435,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>28349</v>
+        <v>6077</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2450,10 +2450,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>41095</v>
+        <v>6423</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2465,10 +2465,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>69444</v>
+        <v>12500</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2486,10 +2486,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>14961</v>
+        <v>13858</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -2501,10 +2501,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I5" s="7">
-        <v>10668</v>
+        <v>10978</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2516,10 +2516,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N5" s="7">
-        <v>25629</v>
+        <v>24836</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2537,10 +2537,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>210</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>137996</v>
+        <v>2251</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2552,10 +2552,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>184</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>114232</v>
+        <v>2103</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2567,10 +2567,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>394</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>252227</v>
+        <v>4354</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2588,10 +2588,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>276</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7">
-        <v>181306</v>
+        <v>22186</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -2603,10 +2603,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>266</v>
+        <v>25</v>
       </c>
       <c r="I7" s="7">
-        <v>165995</v>
+        <v>19504</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2618,10 +2618,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>542</v>
+        <v>54</v>
       </c>
       <c r="N7" s="7">
-        <v>347300</v>
+        <v>41690</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -2692,10 +2692,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="D9" s="7">
-        <v>6064</v>
+        <v>68666</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -2707,10 +2707,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="I9" s="7">
-        <v>5218</v>
+        <v>67897</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -2722,10 +2722,10 @@
         <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>17</v>
+        <v>204</v>
       </c>
       <c r="N9" s="7">
-        <v>11282</v>
+        <v>136563</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>57</v>
@@ -2743,10 +2743,10 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>68666</v>
+        <v>6064</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>60</v>
@@ -2758,10 +2758,10 @@
         <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>67897</v>
+        <v>5218</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>63</v>
@@ -2773,10 +2773,10 @@
         <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>204</v>
+        <v>17</v>
       </c>
       <c r="N10" s="7">
-        <v>136563</v>
+        <v>11282</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>66</v>
@@ -2847,10 +2847,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D12" s="7">
-        <v>36156</v>
+        <v>28349</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>70</v>
@@ -2862,10 +2862,10 @@
         <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="I12" s="7">
-        <v>29278</v>
+        <v>41095</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>73</v>
@@ -2877,10 +2877,10 @@
         <v>75</v>
       </c>
       <c r="M12" s="7">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="N12" s="7">
-        <v>65434</v>
+        <v>69444</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>76</v>
@@ -2898,10 +2898,10 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>9</v>
+        <v>210</v>
       </c>
       <c r="D13" s="7">
-        <v>6228</v>
+        <v>137996</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>79</v>
@@ -2913,10 +2913,10 @@
         <v>81</v>
       </c>
       <c r="H13" s="7">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="I13" s="7">
-        <v>9882</v>
+        <v>114232</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>82</v>
@@ -2928,10 +2928,10 @@
         <v>84</v>
       </c>
       <c r="M13" s="7">
-        <v>22</v>
+        <v>394</v>
       </c>
       <c r="N13" s="7">
-        <v>16109</v>
+        <v>252227</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>85</v>
@@ -2949,10 +2949,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>206</v>
+        <v>23</v>
       </c>
       <c r="D14" s="7">
-        <v>138922</v>
+        <v>14961</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -2964,10 +2964,10 @@
         <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>202</v>
+        <v>17</v>
       </c>
       <c r="I14" s="7">
-        <v>153383</v>
+        <v>10668</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -2979,10 +2979,10 @@
         <v>93</v>
       </c>
       <c r="M14" s="7">
-        <v>408</v>
+        <v>40</v>
       </c>
       <c r="N14" s="7">
-        <v>292305</v>
+        <v>25629</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>94</v>
@@ -3000,7 +3000,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="D15" s="7">
         <v>181306</v>
@@ -3015,10 +3015,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="I15" s="7">
-        <v>192543</v>
+        <v>165995</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -3030,10 +3030,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="N15" s="7">
-        <v>373848</v>
+        <v>347300</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -3053,49 +3053,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D16" s="7">
-        <v>6077</v>
+        <v>19142</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>26</v>
+      </c>
+      <c r="I16" s="7">
+        <v>16037</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="7">
-        <v>8</v>
-      </c>
-      <c r="I16" s="7">
-        <v>6423</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>56</v>
+      </c>
+      <c r="N16" s="7">
+        <v>35179</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M16" s="7">
-        <v>16</v>
-      </c>
-      <c r="N16" s="7">
-        <v>12500</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,49 +3104,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>169</v>
       </c>
       <c r="D17" s="7">
-        <v>2251</v>
+        <v>109902</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>167</v>
+      </c>
+      <c r="I17" s="7">
+        <v>100572</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H17" s="7">
-        <v>3</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2103</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>336</v>
+      </c>
+      <c r="N17" s="7">
+        <v>210474</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M17" s="7">
-        <v>6</v>
-      </c>
-      <c r="N17" s="7">
-        <v>4354</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,49 +3155,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D18" s="7">
-        <v>13858</v>
+        <v>4752</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
       </c>
       <c r="I18" s="7">
-        <v>10978</v>
+        <v>7968</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>22</v>
+      </c>
+      <c r="N18" s="7">
+        <v>12720</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M18" s="7">
-        <v>32</v>
-      </c>
-      <c r="N18" s="7">
-        <v>24836</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3206,10 +3206,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>29</v>
+        <v>207</v>
       </c>
       <c r="D19" s="7">
-        <v>22186</v>
+        <v>133796</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -3221,10 +3221,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>25</v>
+        <v>207</v>
       </c>
       <c r="I19" s="7">
-        <v>19504</v>
+        <v>124577</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -3236,10 +3236,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>54</v>
+        <v>414</v>
       </c>
       <c r="N19" s="7">
-        <v>41690</v>
+        <v>258373</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -3253,31 +3253,31 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D20" s="7">
-        <v>19142</v>
+        <v>36156</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>127</v>
       </c>
       <c r="H20" s="7">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I20" s="7">
-        <v>16037</v>
+        <v>29278</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>128</v>
@@ -3289,10 +3289,10 @@
         <v>130</v>
       </c>
       <c r="M20" s="7">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="N20" s="7">
-        <v>35179</v>
+        <v>65434</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>131</v>
@@ -3310,10 +3310,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>8</v>
+        <v>206</v>
       </c>
       <c r="D21" s="7">
-        <v>4752</v>
+        <v>138922</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>134</v>
@@ -3325,10 +3325,10 @@
         <v>136</v>
       </c>
       <c r="H21" s="7">
-        <v>14</v>
+        <v>202</v>
       </c>
       <c r="I21" s="7">
-        <v>7968</v>
+        <v>153383</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>137</v>
@@ -3340,10 +3340,10 @@
         <v>139</v>
       </c>
       <c r="M21" s="7">
-        <v>22</v>
+        <v>408</v>
       </c>
       <c r="N21" s="7">
-        <v>12720</v>
+        <v>292305</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>140</v>
@@ -3361,10 +3361,10 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>169</v>
+        <v>9</v>
       </c>
       <c r="D22" s="7">
-        <v>109902</v>
+        <v>6228</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>143</v>
@@ -3376,10 +3376,10 @@
         <v>145</v>
       </c>
       <c r="H22" s="7">
-        <v>167</v>
+        <v>13</v>
       </c>
       <c r="I22" s="7">
-        <v>100572</v>
+        <v>9882</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>146</v>
@@ -3391,10 +3391,10 @@
         <v>148</v>
       </c>
       <c r="M22" s="7">
-        <v>336</v>
+        <v>22</v>
       </c>
       <c r="N22" s="7">
-        <v>210474</v>
+        <v>16109</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>149</v>
@@ -3412,10 +3412,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>207</v>
+        <v>268</v>
       </c>
       <c r="D23" s="7">
-        <v>133796</v>
+        <v>181306</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -3427,10 +3427,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>207</v>
+        <v>252</v>
       </c>
       <c r="I23" s="7">
-        <v>124577</v>
+        <v>192543</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -3442,10 +3442,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>414</v>
+        <v>520</v>
       </c>
       <c r="N23" s="7">
-        <v>258373</v>
+        <v>373848</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -3516,49 +3516,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>52</v>
+        <v>706</v>
       </c>
       <c r="D25" s="7">
-        <v>34256</v>
+        <v>469344</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>28</v>
+        <v>161</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H25" s="7">
-        <v>55</v>
+        <v>668</v>
       </c>
       <c r="I25" s="7">
-        <v>35838</v>
+        <v>447062</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
-        <v>107</v>
+        <v>1374</v>
       </c>
       <c r="N25" s="7">
-        <v>70094</v>
+        <v>916405</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3567,13 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>706</v>
+        <v>52</v>
       </c>
       <c r="D26" s="7">
-        <v>469344</v>
+        <v>34256</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>169</v>
+        <v>95</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>170</v>
@@ -3582,10 +3582,10 @@
         <v>171</v>
       </c>
       <c r="H26" s="7">
-        <v>668</v>
+        <v>55</v>
       </c>
       <c r="I26" s="7">
-        <v>447062</v>
+        <v>35838</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>172</v>
@@ -3597,10 +3597,10 @@
         <v>174</v>
       </c>
       <c r="M26" s="7">
-        <v>1374</v>
+        <v>107</v>
       </c>
       <c r="N26" s="7">
-        <v>916405</v>
+        <v>70094</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>175</v>
@@ -3681,7 +3681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF981ECC-D7FA-42AD-A5AD-6D4A57FD7B0F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D393F9-3E04-438E-A071-BFF5D3A657B3}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3799,10 +3799,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>33137</v>
+        <v>8322</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>179</v>
@@ -3814,10 +3814,10 @@
         <v>181</v>
       </c>
       <c r="H4" s="7">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>28860</v>
+        <v>8569</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>182</v>
@@ -3829,10 +3829,10 @@
         <v>184</v>
       </c>
       <c r="M4" s="7">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>61997</v>
+        <v>16890</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>185</v>
@@ -3850,10 +3850,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>15628</v>
+        <v>13160</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>188</v>
@@ -3865,34 +3865,34 @@
         <v>190</v>
       </c>
       <c r="H5" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I5" s="7">
-        <v>10497</v>
+        <v>11113</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>54</v>
+        <v>191</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M5" s="7">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N5" s="7">
-        <v>26125</v>
+        <v>24273</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,49 +3901,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>230</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>160314</v>
+        <v>2972</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H6" s="7">
-        <v>239</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>153857</v>
+        <v>1821</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M6" s="7">
-        <v>469</v>
+        <v>5</v>
       </c>
       <c r="N6" s="7">
-        <v>314171</v>
+        <v>4793</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,10 +3952,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>302</v>
+        <v>27</v>
       </c>
       <c r="D7" s="7">
-        <v>209078</v>
+        <v>24454</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3967,10 +3967,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>299</v>
+        <v>25</v>
       </c>
       <c r="I7" s="7">
-        <v>193214</v>
+        <v>21503</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -3982,10 +3982,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>601</v>
+        <v>52</v>
       </c>
       <c r="N7" s="7">
-        <v>402293</v>
+        <v>45957</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4011,13 +4011,13 @@
         <v>30339</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H8" s="7">
         <v>30</v>
@@ -4026,13 +4026,13 @@
         <v>22480</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M8" s="7">
         <v>73</v>
@@ -4041,13 +4041,13 @@
         <v>52819</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,49 +4056,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>126</v>
       </c>
       <c r="D9" s="7">
-        <v>2755</v>
+        <v>89391</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H9" s="7">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="I9" s="7">
-        <v>7608</v>
+        <v>79885</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M9" s="7">
-        <v>15</v>
+        <v>238</v>
       </c>
       <c r="N9" s="7">
-        <v>10363</v>
+        <v>169276</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>222</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,49 +4107,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>89391</v>
+        <v>2755</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H10" s="7">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>79885</v>
+        <v>7608</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="M10" s="7">
-        <v>238</v>
+        <v>15</v>
       </c>
       <c r="N10" s="7">
-        <v>169276</v>
+        <v>10363</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>228</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,49 +4211,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D12" s="7">
-        <v>24225</v>
+        <v>33137</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H12" s="7">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I12" s="7">
-        <v>27010</v>
+        <v>28860</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M12" s="7">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="N12" s="7">
-        <v>51235</v>
+        <v>61997</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,49 +4262,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>24</v>
+        <v>230</v>
       </c>
       <c r="D13" s="7">
-        <v>16878</v>
+        <v>160314</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H13" s="7">
         <v>239</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H13" s="7">
-        <v>11</v>
-      </c>
       <c r="I13" s="7">
-        <v>8072</v>
+        <v>153857</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M13" s="7">
-        <v>35</v>
+        <v>469</v>
       </c>
       <c r="N13" s="7">
-        <v>24950</v>
+        <v>314171</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4313,49 +4313,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>221</v>
+        <v>23</v>
       </c>
       <c r="D14" s="7">
-        <v>164452</v>
+        <v>15628</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H14" s="7">
-        <v>221</v>
+        <v>16</v>
       </c>
       <c r="I14" s="7">
-        <v>168238</v>
+        <v>10497</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>251</v>
+        <v>63</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M14" s="7">
-        <v>442</v>
+        <v>39</v>
       </c>
       <c r="N14" s="7">
-        <v>332690</v>
+        <v>26125</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>252</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4364,10 +4364,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="D15" s="7">
-        <v>205555</v>
+        <v>209078</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -4379,10 +4379,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="I15" s="7">
-        <v>203320</v>
+        <v>193214</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -4394,10 +4394,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>545</v>
+        <v>601</v>
       </c>
       <c r="N15" s="7">
-        <v>408875</v>
+        <v>402293</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -4417,49 +4417,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D16" s="7">
-        <v>8322</v>
+        <v>15469</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H16" s="7">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="I16" s="7">
-        <v>8569</v>
+        <v>21740</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="N16" s="7">
-        <v>16890</v>
+        <v>37209</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,49 +4468,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>196</v>
       </c>
       <c r="D17" s="7">
-        <v>2972</v>
+        <v>127892</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>179</v>
       </c>
       <c r="I17" s="7">
-        <v>1821</v>
+        <v>114280</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>375</v>
       </c>
       <c r="N17" s="7">
-        <v>4793</v>
+        <v>242173</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4519,46 +4519,46 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D18" s="7">
-        <v>13160</v>
+        <v>12567</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H18" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I18" s="7">
-        <v>11113</v>
+        <v>6580</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M18" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N18" s="7">
-        <v>24273</v>
+        <v>19147</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>281</v>
+        <v>230</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>282</v>
@@ -4570,10 +4570,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>27</v>
+        <v>239</v>
       </c>
       <c r="D19" s="7">
-        <v>24454</v>
+        <v>155928</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -4585,10 +4585,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>25</v>
+        <v>222</v>
       </c>
       <c r="I19" s="7">
-        <v>21503</v>
+        <v>142600</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -4600,10 +4600,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>52</v>
+        <v>461</v>
       </c>
       <c r="N19" s="7">
-        <v>45957</v>
+        <v>298529</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -4617,16 +4617,16 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D20" s="7">
-        <v>15469</v>
+        <v>24225</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>283</v>
@@ -4638,10 +4638,10 @@
         <v>285</v>
       </c>
       <c r="H20" s="7">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I20" s="7">
-        <v>21740</v>
+        <v>27010</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>286</v>
@@ -4653,10 +4653,10 @@
         <v>288</v>
       </c>
       <c r="M20" s="7">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="N20" s="7">
-        <v>37209</v>
+        <v>51235</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>289</v>
@@ -4674,10 +4674,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>19</v>
+        <v>221</v>
       </c>
       <c r="D21" s="7">
-        <v>12567</v>
+        <v>164452</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>292</v>
@@ -4689,10 +4689,10 @@
         <v>294</v>
       </c>
       <c r="H21" s="7">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="I21" s="7">
-        <v>6580</v>
+        <v>168238</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>295</v>
@@ -4704,16 +4704,16 @@
         <v>297</v>
       </c>
       <c r="M21" s="7">
-        <v>29</v>
+        <v>442</v>
       </c>
       <c r="N21" s="7">
-        <v>19147</v>
+        <v>332690</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>298</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>219</v>
+        <v>296</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>299</v>
@@ -4725,10 +4725,10 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="D22" s="7">
-        <v>127892</v>
+        <v>16878</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>300</v>
@@ -4740,10 +4740,10 @@
         <v>302</v>
       </c>
       <c r="H22" s="7">
-        <v>179</v>
+        <v>11</v>
       </c>
       <c r="I22" s="7">
-        <v>114280</v>
+        <v>8072</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>303</v>
@@ -4755,10 +4755,10 @@
         <v>305</v>
       </c>
       <c r="M22" s="7">
-        <v>375</v>
+        <v>35</v>
       </c>
       <c r="N22" s="7">
-        <v>242173</v>
+        <v>24950</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>306</v>
@@ -4776,10 +4776,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="D23" s="7">
-        <v>155928</v>
+        <v>205555</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -4791,10 +4791,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="I23" s="7">
-        <v>142600</v>
+        <v>203320</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -4806,10 +4806,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>461</v>
+        <v>545</v>
       </c>
       <c r="N23" s="7">
-        <v>298529</v>
+        <v>408875</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -4880,10 +4880,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>73</v>
+        <v>787</v>
       </c>
       <c r="D25" s="7">
-        <v>50800</v>
+        <v>555210</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>318</v>
@@ -4895,34 +4895,34 @@
         <v>320</v>
       </c>
       <c r="H25" s="7">
-        <v>50</v>
+        <v>764</v>
       </c>
       <c r="I25" s="7">
-        <v>34578</v>
+        <v>527372</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>240</v>
+        <v>321</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M25" s="7">
-        <v>123</v>
+        <v>1551</v>
       </c>
       <c r="N25" s="7">
-        <v>85378</v>
+        <v>1082583</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,28 +4931,28 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>787</v>
+        <v>73</v>
       </c>
       <c r="D26" s="7">
-        <v>555210</v>
+        <v>50800</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H26" s="7">
-        <v>764</v>
+        <v>50</v>
       </c>
       <c r="I26" s="7">
-        <v>527372</v>
+        <v>34578</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>330</v>
@@ -4961,10 +4961,10 @@
         <v>331</v>
       </c>
       <c r="M26" s="7">
-        <v>1551</v>
+        <v>123</v>
       </c>
       <c r="N26" s="7">
-        <v>1082583</v>
+        <v>85378</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>332</v>
@@ -5045,7 +5045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2648270B-52F6-4B4D-96F2-6EB327060DFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7237A2C-14D2-4D1C-A42F-59F279362D30}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5163,10 +5163,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>41416</v>
+        <v>9142</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>336</v>
@@ -5178,10 +5178,10 @@
         <v>338</v>
       </c>
       <c r="H4" s="7">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>32631</v>
+        <v>5324</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>339</v>
@@ -5190,19 +5190,19 @@
         <v>340</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="7">
+        <v>17</v>
+      </c>
+      <c r="N4" s="7">
+        <v>14466</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="M4" s="7">
-        <v>108</v>
-      </c>
-      <c r="N4" s="7">
-        <v>74046</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>343</v>
@@ -5214,10 +5214,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>7866</v>
+        <v>14762</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>344</v>
@@ -5229,10 +5229,10 @@
         <v>346</v>
       </c>
       <c r="H5" s="7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>10708</v>
+        <v>11822</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>347</v>
@@ -5244,10 +5244,10 @@
         <v>349</v>
       </c>
       <c r="M5" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N5" s="7">
-        <v>18574</v>
+        <v>26584</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>350</v>
@@ -5265,25 +5265,25 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>240</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>160081</v>
+        <v>1670</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>353</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>146</v>
-      </c>
       <c r="H6" s="7">
-        <v>247</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>151098</v>
+        <v>3702</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>355</v>
@@ -5295,10 +5295,10 @@
         <v>357</v>
       </c>
       <c r="M6" s="7">
-        <v>487</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>311179</v>
+        <v>5372</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>358</v>
@@ -5316,10 +5316,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>310</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7">
-        <v>209362</v>
+        <v>25574</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -5331,10 +5331,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>313</v>
+        <v>22</v>
       </c>
       <c r="I7" s="7">
-        <v>194437</v>
+        <v>20847</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -5346,10 +5346,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>623</v>
+        <v>52</v>
       </c>
       <c r="N7" s="7">
-        <v>403799</v>
+        <v>46421</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -5420,10 +5420,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="D9" s="7">
-        <v>6835</v>
+        <v>75498</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>370</v>
@@ -5435,10 +5435,10 @@
         <v>372</v>
       </c>
       <c r="H9" s="7">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="I9" s="7">
-        <v>2985</v>
+        <v>70713</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>373</v>
@@ -5450,19 +5450,19 @@
         <v>375</v>
       </c>
       <c r="M9" s="7">
-        <v>13</v>
+        <v>209</v>
       </c>
       <c r="N9" s="7">
-        <v>9820</v>
+        <v>146210</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>295</v>
+        <v>376</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,43 +5471,43 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>104</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>75498</v>
+        <v>6835</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H10" s="7">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="I10" s="7">
-        <v>70713</v>
+        <v>2985</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M10" s="7">
-        <v>209</v>
+        <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>146210</v>
+        <v>9820</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>384</v>
+        <v>278</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>385</v>
@@ -5575,10 +5575,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D12" s="7">
-        <v>28574</v>
+        <v>41416</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>387</v>
@@ -5590,10 +5590,10 @@
         <v>389</v>
       </c>
       <c r="H12" s="7">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I12" s="7">
-        <v>33922</v>
+        <v>32631</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>390</v>
@@ -5605,19 +5605,19 @@
         <v>392</v>
       </c>
       <c r="M12" s="7">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="N12" s="7">
-        <v>62496</v>
+        <v>74046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>393</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5626,43 +5626,43 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="D13" s="7">
-        <v>13102</v>
+        <v>160081</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>318</v>
+        <v>395</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>396</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" s="7">
+        <v>247</v>
+      </c>
+      <c r="I13" s="7">
+        <v>151098</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5494</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>487</v>
+      </c>
+      <c r="N13" s="7">
+        <v>311179</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="M13" s="7">
-        <v>25</v>
-      </c>
-      <c r="N13" s="7">
-        <v>18595</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>401</v>
@@ -5677,10 +5677,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>202</v>
+        <v>11</v>
       </c>
       <c r="D14" s="7">
-        <v>143288</v>
+        <v>7866</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>403</v>
@@ -5692,10 +5692,10 @@
         <v>405</v>
       </c>
       <c r="H14" s="7">
-        <v>210</v>
+        <v>17</v>
       </c>
       <c r="I14" s="7">
-        <v>153232</v>
+        <v>10708</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>406</v>
@@ -5707,10 +5707,10 @@
         <v>408</v>
       </c>
       <c r="M14" s="7">
-        <v>412</v>
+        <v>28</v>
       </c>
       <c r="N14" s="7">
-        <v>296520</v>
+        <v>18574</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>409</v>
@@ -5719,7 +5719,7 @@
         <v>410</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>197</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5728,10 +5728,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="D15" s="7">
-        <v>184963</v>
+        <v>209362</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5743,10 +5743,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>261</v>
+        <v>313</v>
       </c>
       <c r="I15" s="7">
-        <v>192648</v>
+        <v>194437</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5758,10 +5758,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>521</v>
+        <v>623</v>
       </c>
       <c r="N15" s="7">
-        <v>377611</v>
+        <v>403799</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5781,49 +5781,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D16" s="7">
-        <v>9142</v>
+        <v>33425</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="H16" s="7">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="I16" s="7">
-        <v>5324</v>
+        <v>34308</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>123</v>
+        <v>417</v>
       </c>
       <c r="M16" s="7">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="N16" s="7">
-        <v>14466</v>
+        <v>67732</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,49 +5832,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>156</v>
       </c>
       <c r="D17" s="7">
-        <v>1670</v>
+        <v>101333</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>269</v>
+        <v>422</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>167</v>
       </c>
       <c r="I17" s="7">
-        <v>3702</v>
+        <v>96524</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>323</v>
       </c>
       <c r="N17" s="7">
-        <v>5372</v>
+        <v>197856</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,49 +5883,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="7">
-        <v>14762</v>
+        <v>11188</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="H18" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I18" s="7">
-        <v>11822</v>
+        <v>6779</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="M18" s="7">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N18" s="7">
-        <v>26584</v>
+        <v>17967</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,10 +5934,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>30</v>
+        <v>217</v>
       </c>
       <c r="D19" s="7">
-        <v>25574</v>
+        <v>145945</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5949,10 +5949,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>22</v>
+        <v>230</v>
       </c>
       <c r="I19" s="7">
-        <v>20847</v>
+        <v>137610</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5964,10 +5964,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>52</v>
+        <v>447</v>
       </c>
       <c r="N19" s="7">
-        <v>46421</v>
+        <v>283555</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -5981,55 +5981,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D20" s="7">
-        <v>33425</v>
+        <v>28574</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="H20" s="7">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I20" s="7">
-        <v>34308</v>
+        <v>33922</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="M20" s="7">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="N20" s="7">
-        <v>67732</v>
+        <v>62496</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,49 +6038,49 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="D21" s="7">
-        <v>11188</v>
+        <v>143288</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="H21" s="7">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="I21" s="7">
-        <v>6779</v>
+        <v>153232</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="M21" s="7">
-        <v>27</v>
+        <v>412</v>
       </c>
       <c r="N21" s="7">
-        <v>17967</v>
+        <v>296520</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>453</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,43 +6089,43 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="D22" s="7">
-        <v>101333</v>
+        <v>13102</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>454</v>
+        <v>327</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H22" s="7">
-        <v>167</v>
+        <v>7</v>
       </c>
       <c r="I22" s="7">
-        <v>96524</v>
+        <v>5494</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M22" s="7">
-        <v>323</v>
+        <v>25</v>
       </c>
       <c r="N22" s="7">
-        <v>197856</v>
+        <v>18595</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>460</v>
+        <v>121</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>461</v>
@@ -6140,10 +6140,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="D23" s="7">
-        <v>145945</v>
+        <v>184963</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -6155,10 +6155,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>230</v>
+        <v>261</v>
       </c>
       <c r="I23" s="7">
-        <v>137610</v>
+        <v>192648</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -6170,10 +6170,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>447</v>
+        <v>521</v>
       </c>
       <c r="N23" s="7">
-        <v>283555</v>
+        <v>377611</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -6244,10 +6244,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>56</v>
+        <v>719</v>
       </c>
       <c r="D25" s="7">
-        <v>40659</v>
+        <v>494960</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>472</v>
@@ -6259,10 +6259,10 @@
         <v>474</v>
       </c>
       <c r="H25" s="7">
-        <v>43</v>
+        <v>741</v>
       </c>
       <c r="I25" s="7">
-        <v>29668</v>
+        <v>483388</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>475</v>
@@ -6274,19 +6274,19 @@
         <v>477</v>
       </c>
       <c r="M25" s="7">
-        <v>99</v>
+        <v>1460</v>
       </c>
       <c r="N25" s="7">
-        <v>70328</v>
+        <v>978349</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>478</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>161</v>
+        <v>479</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,46 +6295,46 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>719</v>
+        <v>56</v>
       </c>
       <c r="D26" s="7">
-        <v>494960</v>
+        <v>40659</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H26" s="7">
-        <v>741</v>
+        <v>43</v>
       </c>
       <c r="I26" s="7">
-        <v>483388</v>
+        <v>29668</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M26" s="7">
-        <v>1460</v>
+        <v>99</v>
       </c>
       <c r="N26" s="7">
-        <v>978349</v>
+        <v>70328</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>487</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>488</v>
@@ -6409,7 +6409,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B32F4F-3086-40AB-892A-A2ECFD09C1FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D64BE68-A0C6-4B53-9E84-8CC747F75525}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6527,49 +6527,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>6907</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>657</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="H4" s="7">
-        <v>5</v>
-      </c>
-      <c r="I4" s="7">
-        <v>3837</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>657</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="M4" s="7">
-        <v>15</v>
-      </c>
-      <c r="N4" s="7">
-        <v>10744</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,49 +6578,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>4735</v>
+        <v>4670</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="7">
+        <v>5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>3366</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="M5" s="7">
+        <v>11</v>
+      </c>
+      <c r="N5" s="7">
+        <v>8035</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="H5" s="7">
-        <v>6</v>
-      </c>
-      <c r="I5" s="7">
-        <v>4405</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="M5" s="7">
-        <v>13</v>
-      </c>
-      <c r="N5" s="7">
-        <v>9140</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>506</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6629,49 +6629,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>36976</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>508</v>
+        <v>201</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="H6" s="7">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>20853</v>
+        <v>540</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>512</v>
+        <v>201</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="M6" s="7">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>57829</v>
+        <v>540</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>515</v>
+        <v>201</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6680,10 +6680,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>48618</v>
+        <v>4670</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -6695,10 +6695,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>29095</v>
+        <v>4563</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -6710,10 +6710,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>77713</v>
+        <v>9233</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -6739,13 +6739,13 @@
         <v>2599</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -6754,13 +6754,13 @@
         <v>2076</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -6769,13 +6769,13 @@
         <v>4675</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,49 +6784,49 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D9" s="7">
-        <v>1282</v>
+        <v>12004</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>269</v>
+        <v>516</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I9" s="7">
-        <v>967</v>
+        <v>9294</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>269</v>
+        <v>519</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="M9" s="7">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="N9" s="7">
-        <v>2249</v>
+        <v>21298</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6835,49 +6835,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>12004</v>
+        <v>1282</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>534</v>
+        <v>201</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="H10" s="7">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>9294</v>
+        <v>967</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>537</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="M10" s="7">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>21298</v>
+        <v>2249</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,49 +6939,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>3942</v>
+        <v>6907</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="H12" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I12" s="7">
-        <v>3785</v>
+        <v>3837</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="M12" s="7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N12" s="7">
-        <v>7727</v>
+        <v>10744</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6990,49 +6990,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="D13" s="7">
-        <v>4148</v>
+        <v>36976</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>502</v>
+        <v>540</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="I13" s="7">
-        <v>2479</v>
+        <v>20853</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="N13" s="7">
-        <v>6627</v>
+        <v>57829</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7041,49 +7041,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D14" s="7">
-        <v>19311</v>
+        <v>4735</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="H14" s="7">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="I14" s="7">
-        <v>22343</v>
+        <v>4405</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>201</v>
+        <v>552</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="M14" s="7">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="N14" s="7">
-        <v>41654</v>
+        <v>9140</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7092,10 +7092,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="D15" s="7">
-        <v>27401</v>
+        <v>48618</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -7107,10 +7107,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I15" s="7">
-        <v>28607</v>
+        <v>29095</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -7122,10 +7122,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="N15" s="7">
-        <v>56008</v>
+        <v>77713</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -7145,49 +7145,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7">
+        <v>8087</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="H16" s="7">
         <v>0</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>0</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>567</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7">
-        <v>657</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>569</v>
+        <v>201</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>269</v>
+        <v>490</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>657</v>
+        <v>8087</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>269</v>
+        <v>563</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7196,49 +7196,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>19371</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>269</v>
+        <v>565</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>32</v>
+      </c>
+      <c r="I17" s="7">
+        <v>22048</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>568</v>
       </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>540</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="M17" s="7">
+        <v>62</v>
+      </c>
+      <c r="N17" s="7">
+        <v>41419</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>540</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7247,49 +7247,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>4670</v>
+        <v>2394</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>40</v>
+        <v>576</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>3366</v>
+        <v>3273</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>8</v>
+      </c>
+      <c r="N18" s="7">
+        <v>5667</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="L18" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="M18" s="7">
-        <v>11</v>
-      </c>
-      <c r="N18" s="7">
-        <v>8035</v>
-      </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7298,10 +7298,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="D19" s="7">
-        <v>4670</v>
+        <v>29852</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -7313,10 +7313,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="I19" s="7">
-        <v>4563</v>
+        <v>25321</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -7328,10 +7328,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="N19" s="7">
-        <v>9233</v>
+        <v>55173</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -7345,55 +7345,55 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="7">
-        <v>8087</v>
+        <v>3942</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>6</v>
+      </c>
+      <c r="I20" s="7">
+        <v>3785</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>269</v>
-      </c>
       <c r="K20" s="7" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M20" s="7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N20" s="7">
-        <v>8087</v>
+        <v>7727</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7402,28 +7402,28 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D21" s="7">
-        <v>2394</v>
+        <v>19311</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H21" s="7">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="I21" s="7">
-        <v>3273</v>
+        <v>22343</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>593</v>
+        <v>247</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>594</v>
@@ -7432,19 +7432,19 @@
         <v>595</v>
       </c>
       <c r="M21" s="7">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="N21" s="7">
-        <v>5667</v>
+        <v>41654</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>596</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>114</v>
+        <v>597</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7453,13 +7453,13 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>19371</v>
+        <v>4148</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>598</v>
+        <v>552</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>599</v>
@@ -7468,10 +7468,10 @@
         <v>600</v>
       </c>
       <c r="H22" s="7">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="I22" s="7">
-        <v>22048</v>
+        <v>2479</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>601</v>
@@ -7483,10 +7483,10 @@
         <v>603</v>
       </c>
       <c r="M22" s="7">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="N22" s="7">
-        <v>41419</v>
+        <v>6627</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>604</v>
@@ -7504,10 +7504,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D23" s="7">
-        <v>29852</v>
+        <v>27401</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -7519,10 +7519,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I23" s="7">
-        <v>25321</v>
+        <v>28607</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -7534,10 +7534,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="N23" s="7">
-        <v>55173</v>
+        <v>56008</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -7599,7 +7599,7 @@
         <v>613</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7608,10 +7608,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="D25" s="7">
-        <v>12558</v>
+        <v>92332</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>614</v>
@@ -7623,34 +7623,34 @@
         <v>616</v>
       </c>
       <c r="H25" s="7">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="I25" s="7">
-        <v>11665</v>
+        <v>77904</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="L25" s="7" t="s">
-        <v>257</v>
-      </c>
       <c r="M25" s="7">
-        <v>35</v>
+        <v>264</v>
       </c>
       <c r="N25" s="7">
-        <v>24223</v>
+        <v>170236</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>619</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>549</v>
+        <v>620</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7659,46 +7659,46 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="D26" s="7">
-        <v>92332</v>
+        <v>12558</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="H26" s="7">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="I26" s="7">
-        <v>77904</v>
+        <v>11665</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>118</v>
+        <v>625</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>625</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
-        <v>264</v>
+        <v>35</v>
       </c>
       <c r="N26" s="7">
-        <v>170236</v>
+        <v>24223</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>627</v>
+        <v>589</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>628</v>

--- a/data/trans_orig/IP18B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP18B-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{853FD7C5-F046-4005-92CC-785CCEBB32D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D46BA11F-E877-4E19-B0DD-3F97C6BD14E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{71EED908-9EB9-497A-90FE-4D752DB7C195}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E60E6A91-2ED0-4CD1-A94A-F69137839851}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="613">
   <si>
     <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2007 (Tasa respuesta: 87,21%)</t>
   </si>
@@ -71,1861 +71,1813 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>Pediatria</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
     <t>Médico general</t>
   </si>
   <si>
     <t>27,39%</t>
   </si>
   <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
   </si>
   <si>
     <t>32,93%</t>
   </si>
   <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
   </si>
   <si>
     <t>29,98%</t>
   </si>
   <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>Pediatria</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2012 (Tasa respuesta: 94,57%)</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>75,9%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2015 (Tasa respuesta: 91,35%)</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>43,77%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>63,55%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
   </si>
   <si>
     <t>77,96%</t>
   </si>
   <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>Otros</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
   </si>
   <si>
     <t>16,91%</t>
   </si>
   <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>71,64%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2012 (Tasa respuesta: 94,57%)</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2015 (Tasa respuesta: 91,35%)</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>73,68%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>76,98%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>61,67%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>30,51%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>53,99%</t>
-  </si>
-  <si>
-    <t>84,27%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
     <t>14,09%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
   </si>
 </sst>
 </file>
@@ -1936,7 +1888,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2032,39 +1984,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2116,7 +2068,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2227,13 +2179,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -2242,6 +2187,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2306,19 +2258,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D3AD25-C281-461E-A02A-B702BF0118F5}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF79910B-3CFE-4675-A1C1-5DDF9FF5F569}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2435,10 +2407,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>6077</v>
+        <v>2251</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2450,10 +2422,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>6423</v>
+        <v>2103</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -2465,10 +2437,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>12500</v>
+        <v>4354</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -2537,10 +2509,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D6" s="7">
-        <v>2251</v>
+        <v>6077</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2552,10 +2524,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>2103</v>
+        <v>6423</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2567,10 +2539,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="N6" s="7">
-        <v>4354</v>
+        <v>12500</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -2641,10 +2613,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>32683</v>
+        <v>6064</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -2656,34 +2628,34 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I8" s="7">
-        <v>22926</v>
+        <v>5218</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>17</v>
+      </c>
+      <c r="N8" s="7">
+        <v>11282</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M8" s="7">
-        <v>84</v>
-      </c>
-      <c r="N8" s="7">
-        <v>55609</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2698,13 +2670,13 @@
         <v>68666</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>101</v>
@@ -2713,13 +2685,13 @@
         <v>67897</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>204</v>
@@ -2728,13 +2700,13 @@
         <v>136563</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,49 +2715,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D10" s="7">
-        <v>6064</v>
+        <v>32683</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>34</v>
+      </c>
+      <c r="I10" s="7">
+        <v>22926</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="7">
-        <v>8</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5218</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>84</v>
+      </c>
+      <c r="N10" s="7">
+        <v>55609</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="7">
-        <v>17</v>
-      </c>
-      <c r="N10" s="7">
-        <v>11282</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,55 +2813,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D12" s="7">
-        <v>28349</v>
+        <v>14961</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>17</v>
+      </c>
+      <c r="I12" s="7">
+        <v>10668</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H12" s="7">
-        <v>65</v>
-      </c>
-      <c r="I12" s="7">
-        <v>41095</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>40</v>
+      </c>
+      <c r="N12" s="7">
+        <v>25629</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M12" s="7">
-        <v>108</v>
-      </c>
-      <c r="N12" s="7">
-        <v>69444</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,13 +2876,13 @@
         <v>137996</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>184</v>
@@ -2919,13 +2891,13 @@
         <v>114232</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>394</v>
@@ -2934,13 +2906,13 @@
         <v>252227</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,49 +2921,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D14" s="7">
-        <v>14961</v>
+        <v>28349</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>65</v>
+      </c>
+      <c r="I14" s="7">
+        <v>41095</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="7">
-        <v>17</v>
-      </c>
-      <c r="I14" s="7">
-        <v>10668</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>108</v>
+      </c>
+      <c r="N14" s="7">
+        <v>69444</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M14" s="7">
-        <v>40</v>
-      </c>
-      <c r="N14" s="7">
-        <v>25629</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,31 +3019,31 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>19142</v>
+        <v>4752</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>99</v>
       </c>
       <c r="H16" s="7">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I16" s="7">
-        <v>16037</v>
+        <v>7968</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>100</v>
@@ -3083,10 +3055,10 @@
         <v>102</v>
       </c>
       <c r="M16" s="7">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="N16" s="7">
-        <v>35179</v>
+        <v>12720</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>103</v>
@@ -3155,10 +3127,10 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D18" s="7">
-        <v>4752</v>
+        <v>19142</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>115</v>
@@ -3170,10 +3142,10 @@
         <v>117</v>
       </c>
       <c r="H18" s="7">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I18" s="7">
-        <v>7968</v>
+        <v>16037</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>118</v>
@@ -3185,10 +3157,10 @@
         <v>120</v>
       </c>
       <c r="M18" s="7">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="N18" s="7">
-        <v>12720</v>
+        <v>35179</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>121</v>
@@ -3259,10 +3231,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D20" s="7">
-        <v>36156</v>
+        <v>6228</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>125</v>
@@ -3274,10 +3246,10 @@
         <v>127</v>
       </c>
       <c r="H20" s="7">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="I20" s="7">
-        <v>29278</v>
+        <v>9882</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>128</v>
@@ -3289,10 +3261,10 @@
         <v>130</v>
       </c>
       <c r="M20" s="7">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="N20" s="7">
-        <v>65434</v>
+        <v>16109</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>131</v>
@@ -3361,49 +3333,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D22" s="7">
-        <v>6228</v>
+        <v>36156</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>143</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>37</v>
+      </c>
+      <c r="I22" s="7">
+        <v>29278</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="H22" s="7">
-        <v>13</v>
-      </c>
-      <c r="I22" s="7">
-        <v>9882</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>90</v>
+      </c>
+      <c r="N22" s="7">
+        <v>65434</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="M22" s="7">
-        <v>22</v>
-      </c>
-      <c r="N22" s="7">
-        <v>16109</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,49 +3437,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="D24" s="7">
-        <v>122407</v>
+        <v>34256</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>55</v>
+      </c>
+      <c r="I24" s="7">
+        <v>35838</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H24" s="7">
-        <v>170</v>
-      </c>
-      <c r="I24" s="7">
-        <v>115759</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>107</v>
+      </c>
+      <c r="N24" s="7">
+        <v>70094</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="M24" s="7">
-        <v>354</v>
-      </c>
-      <c r="N24" s="7">
-        <v>238166</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,13 +3494,13 @@
         <v>469344</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>668</v>
@@ -3537,13 +3509,13 @@
         <v>447062</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>1374</v>
@@ -3552,13 +3524,13 @@
         <v>916405</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3539,13 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>52</v>
+        <v>184</v>
       </c>
       <c r="D26" s="7">
-        <v>34256</v>
+        <v>122407</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>95</v>
+        <v>169</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>170</v>
@@ -3582,10 +3554,10 @@
         <v>171</v>
       </c>
       <c r="H26" s="7">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="I26" s="7">
-        <v>35838</v>
+        <v>115759</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>172</v>
@@ -3597,10 +3569,10 @@
         <v>174</v>
       </c>
       <c r="M26" s="7">
-        <v>107</v>
+        <v>354</v>
       </c>
       <c r="N26" s="7">
-        <v>70094</v>
+        <v>238166</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>175</v>
@@ -3661,6 +3633,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3681,8 +3658,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D393F9-3E04-438E-A071-BFF5D3A657B3}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D08100-3D0C-400D-8094-ABB87EBE370B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3698,7 +3675,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3799,49 +3776,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>8322</v>
+        <v>2972</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>8569</v>
+        <v>1821</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M4" s="7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>16890</v>
+        <v>4793</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,13 +3833,13 @@
         <v>13160</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -3871,13 +3848,13 @@
         <v>11113</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -3886,13 +3863,13 @@
         <v>24273</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,49 +3878,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D6" s="7">
-        <v>2972</v>
+        <v>8322</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I6" s="7">
-        <v>1821</v>
+        <v>8569</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M6" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N6" s="7">
-        <v>4793</v>
+        <v>16890</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,49 +3982,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>30339</v>
+        <v>2755</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H8" s="7">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="I8" s="7">
-        <v>22480</v>
+        <v>7608</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M8" s="7">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="N8" s="7">
-        <v>52819</v>
+        <v>10363</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4039,13 @@
         <v>89391</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H9" s="7">
         <v>112</v>
@@ -4077,13 +4054,13 @@
         <v>79885</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M9" s="7">
         <v>238</v>
@@ -4092,13 +4069,13 @@
         <v>169276</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,49 +4084,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="D10" s="7">
-        <v>2755</v>
+        <v>30339</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H10" s="7">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="I10" s="7">
-        <v>7608</v>
+        <v>22480</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>229</v>
       </c>
       <c r="M10" s="7">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="N10" s="7">
-        <v>10363</v>
+        <v>52819</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>230</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>64</v>
+        <v>231</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,34 +4182,34 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D12" s="7">
-        <v>33137</v>
+        <v>15628</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H12" s="7">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I12" s="7">
-        <v>28860</v>
+        <v>10497</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>236</v>
@@ -4241,10 +4218,10 @@
         <v>237</v>
       </c>
       <c r="M12" s="7">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="N12" s="7">
-        <v>61997</v>
+        <v>26125</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>238</v>
@@ -4313,10 +4290,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D14" s="7">
-        <v>15628</v>
+        <v>33137</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>250</v>
@@ -4328,34 +4305,34 @@
         <v>252</v>
       </c>
       <c r="H14" s="7">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I14" s="7">
-        <v>10497</v>
+        <v>28860</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>63</v>
+        <v>253</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M14" s="7">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="N14" s="7">
-        <v>26125</v>
+        <v>61997</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>176</v>
+        <v>257</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,55 +4388,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D16" s="7">
-        <v>15469</v>
+        <v>12567</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H16" s="7">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="I16" s="7">
-        <v>21740</v>
+        <v>6580</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M16" s="7">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="N16" s="7">
-        <v>37209</v>
+        <v>19147</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,13 +4451,13 @@
         <v>127892</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H17" s="7">
         <v>179</v>
@@ -4489,13 +4466,13 @@
         <v>114280</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
         <v>375</v>
@@ -4504,13 +4481,13 @@
         <v>242173</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4519,49 +4496,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D18" s="7">
-        <v>12567</v>
+        <v>15469</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H18" s="7">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="I18" s="7">
-        <v>6580</v>
+        <v>21740</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M18" s="7">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="N18" s="7">
-        <v>19147</v>
+        <v>37209</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4623,49 +4600,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="D20" s="7">
-        <v>24225</v>
+        <v>16878</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H20" s="7">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="I20" s="7">
-        <v>27010</v>
+        <v>8072</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M20" s="7">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="N20" s="7">
-        <v>51235</v>
+        <v>24950</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,13 +4657,13 @@
         <v>164452</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="H21" s="7">
         <v>221</v>
@@ -4695,13 +4672,13 @@
         <v>168238</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="M21" s="7">
         <v>442</v>
@@ -4710,13 +4687,13 @@
         <v>332690</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,49 +4702,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D22" s="7">
-        <v>16878</v>
+        <v>24225</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H22" s="7">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="I22" s="7">
-        <v>8072</v>
+        <v>27010</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M22" s="7">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="N22" s="7">
-        <v>24950</v>
+        <v>51235</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>308</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4829,49 +4806,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>160</v>
+        <v>73</v>
       </c>
       <c r="D24" s="7">
-        <v>111492</v>
+        <v>50800</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>310</v>
+        <v>209</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H24" s="7">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="I24" s="7">
-        <v>108659</v>
+        <v>34578</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M24" s="7">
-        <v>311</v>
+        <v>123</v>
       </c>
       <c r="N24" s="7">
-        <v>220151</v>
+        <v>85378</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4863,13 @@
         <v>555210</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="H25" s="7">
         <v>764</v>
@@ -4901,13 +4878,13 @@
         <v>527372</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M25" s="7">
         <v>1551</v>
@@ -4916,13 +4893,13 @@
         <v>1082583</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,49 +4908,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="D26" s="7">
-        <v>50800</v>
+        <v>111492</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H26" s="7">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="I26" s="7">
-        <v>34578</v>
+        <v>108659</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>330</v>
+        <v>279</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M26" s="7">
-        <v>123</v>
+        <v>311</v>
       </c>
       <c r="N26" s="7">
-        <v>85378</v>
+        <v>220151</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,6 +5002,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5045,8 +5027,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7237A2C-14D2-4D1C-A42F-59F279362D30}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82FE522-26A4-4F44-BFAA-9F4749CBCB4B}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5062,7 +5044,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5163,25 +5145,25 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>9142</v>
+        <v>1670</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>336</v>
+        <v>99</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>337</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>338</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>5324</v>
+        <v>3702</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>339</v>
@@ -5190,22 +5172,22 @@
         <v>340</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>28</v>
+        <v>341</v>
       </c>
       <c r="M4" s="7">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>14466</v>
+        <v>5372</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5202,13 @@
         <v>14762</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -5235,13 +5217,13 @@
         <v>11822</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -5250,13 +5232,13 @@
         <v>26584</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,49 +5247,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D6" s="7">
-        <v>1670</v>
+        <v>9142</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>201</v>
+        <v>333</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I6" s="7">
-        <v>3702</v>
+        <v>5324</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M6" s="7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N6" s="7">
-        <v>5372</v>
+        <v>14466</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5369,25 +5351,25 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>27433</v>
+        <v>6835</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>362</v>
+        <v>129</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>363</v>
       </c>
       <c r="H8" s="7">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="I8" s="7">
-        <v>29449</v>
+        <v>2985</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>364</v>
@@ -5399,19 +5381,19 @@
         <v>366</v>
       </c>
       <c r="M8" s="7">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="N8" s="7">
-        <v>56881</v>
+        <v>9820</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,13 +5408,13 @@
         <v>75498</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>371</v>
-      </c>
       <c r="G9" s="7" t="s">
-        <v>372</v>
+        <v>347</v>
       </c>
       <c r="H9" s="7">
         <v>105</v>
@@ -5441,13 +5423,13 @@
         <v>70713</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="M9" s="7">
         <v>209</v>
@@ -5456,13 +5438,13 @@
         <v>146210</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,49 +5453,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D10" s="7">
-        <v>6835</v>
+        <v>27433</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>42</v>
+      </c>
+      <c r="I10" s="7">
+        <v>29449</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="H10" s="7">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2985</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>77</v>
+      </c>
+      <c r="N10" s="7">
+        <v>56881</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="M10" s="7">
-        <v>13</v>
-      </c>
-      <c r="N10" s="7">
-        <v>9820</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5569,52 +5551,52 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>41416</v>
+        <v>7866</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>17</v>
+      </c>
+      <c r="I12" s="7">
+        <v>10708</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="H12" s="7">
-        <v>49</v>
-      </c>
-      <c r="I12" s="7">
-        <v>32631</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>28</v>
+      </c>
+      <c r="N12" s="7">
+        <v>18574</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="M12" s="7">
-        <v>108</v>
-      </c>
-      <c r="N12" s="7">
-        <v>74046</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>394</v>
@@ -5638,7 +5620,7 @@
         <v>396</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>109</v>
+        <v>397</v>
       </c>
       <c r="H13" s="7">
         <v>247</v>
@@ -5647,10 +5629,10 @@
         <v>151098</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>398</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>399</v>
@@ -5677,10 +5659,10 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D14" s="7">
-        <v>7866</v>
+        <v>41416</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>403</v>
@@ -5692,34 +5674,34 @@
         <v>405</v>
       </c>
       <c r="H14" s="7">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="I14" s="7">
-        <v>10708</v>
+        <v>32631</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>108</v>
+      </c>
+      <c r="N14" s="7">
+        <v>74046</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>408</v>
       </c>
-      <c r="M14" s="7">
-        <v>28</v>
-      </c>
-      <c r="N14" s="7">
-        <v>18574</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,55 +5757,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D16" s="7">
-        <v>33425</v>
+        <v>11188</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>11</v>
+      </c>
+      <c r="I16" s="7">
+        <v>6779</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="H16" s="7">
-        <v>52</v>
-      </c>
-      <c r="I16" s="7">
-        <v>34308</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16" s="7">
+        <v>27</v>
+      </c>
+      <c r="N16" s="7">
+        <v>17967</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="M16" s="7">
-        <v>97</v>
-      </c>
-      <c r="N16" s="7">
-        <v>67732</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>419</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>420</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,13 +5820,13 @@
         <v>101333</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H17" s="7">
         <v>167</v>
@@ -5853,13 +5835,13 @@
         <v>96524</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="M17" s="7">
         <v>323</v>
@@ -5868,13 +5850,13 @@
         <v>197856</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,49 +5865,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D18" s="7">
-        <v>11188</v>
+        <v>33425</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="H18" s="7">
+        <v>52</v>
+      </c>
+      <c r="I18" s="7">
+        <v>34308</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>97</v>
+      </c>
+      <c r="N18" s="7">
+        <v>67732</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>432</v>
       </c>
-      <c r="H18" s="7">
-        <v>11</v>
-      </c>
-      <c r="I18" s="7">
-        <v>6779</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="M18" s="7">
-        <v>27</v>
-      </c>
-      <c r="N18" s="7">
-        <v>17967</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,49 +5969,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="D20" s="7">
-        <v>28574</v>
+        <v>13102</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H20" s="7">
+        <v>7</v>
+      </c>
+      <c r="I20" s="7">
+        <v>5494</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>25</v>
+      </c>
+      <c r="N20" s="7">
+        <v>18595</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="H20" s="7">
-        <v>44</v>
-      </c>
-      <c r="I20" s="7">
-        <v>33922</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="M20" s="7">
-        <v>84</v>
-      </c>
-      <c r="N20" s="7">
-        <v>62496</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6044,13 +6026,13 @@
         <v>143288</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>448</v>
+        <v>224</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="H21" s="7">
         <v>210</v>
@@ -6059,13 +6041,13 @@
         <v>153232</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>451</v>
+        <v>221</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="M21" s="7">
         <v>412</v>
@@ -6074,13 +6056,13 @@
         <v>296520</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>243</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,49 +6071,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="D22" s="7">
-        <v>13102</v>
+        <v>28574</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>327</v>
+        <v>449</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="H22" s="7">
+        <v>44</v>
+      </c>
+      <c r="I22" s="7">
+        <v>33922</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="M22" s="7">
+        <v>84</v>
+      </c>
+      <c r="N22" s="7">
+        <v>62496</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="H22" s="7">
-        <v>7</v>
-      </c>
-      <c r="I22" s="7">
-        <v>5494</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="M22" s="7">
-        <v>25</v>
-      </c>
-      <c r="N22" s="7">
-        <v>18595</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6193,49 +6175,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="D24" s="7">
-        <v>139989</v>
+        <v>40659</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="H24" s="7">
+        <v>43</v>
+      </c>
+      <c r="I24" s="7">
+        <v>29668</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="M24" s="7">
+        <v>99</v>
+      </c>
+      <c r="N24" s="7">
+        <v>70328</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="H24" s="7">
-        <v>193</v>
-      </c>
-      <c r="I24" s="7">
-        <v>135633</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="M24" s="7">
-        <v>383</v>
-      </c>
-      <c r="N24" s="7">
-        <v>275622</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>470</v>
-      </c>
       <c r="Q24" s="7" t="s">
-        <v>471</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6250,13 +6232,13 @@
         <v>494960</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="H25" s="7">
         <v>741</v>
@@ -6265,13 +6247,13 @@
         <v>483388</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>475</v>
+        <v>141</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="M25" s="7">
         <v>1460</v>
@@ -6280,13 +6262,13 @@
         <v>978349</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>480</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,49 +6277,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="D26" s="7">
-        <v>40659</v>
+        <v>139989</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>482</v>
+        <v>63</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="H26" s="7">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="I26" s="7">
-        <v>29668</v>
+        <v>135633</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="M26" s="7">
-        <v>99</v>
+        <v>383</v>
       </c>
       <c r="N26" s="7">
-        <v>70328</v>
+        <v>275622</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>170</v>
+        <v>477</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,6 +6371,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6409,8 +6396,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D64BE68-A0C6-4B53-9E84-8CC747F75525}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4254B4-DBE0-40A2-9B25-AD38924326C9}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -6426,7 +6413,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6533,43 +6520,43 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>657</v>
+        <v>540</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>657</v>
+        <v>540</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6584,10 +6571,10 @@
         <v>4670</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>40</v>
@@ -6599,13 +6586,13 @@
         <v>3366</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -6614,13 +6601,13 @@
         <v>8035</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,43 +6622,43 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>540</v>
+        <v>657</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>540</v>
+        <v>657</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,49 +6720,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1282</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="H8" s="7">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>967</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="M8" s="7">
         <v>4</v>
       </c>
-      <c r="D8" s="7">
-        <v>2599</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="H8" s="7">
-        <v>3</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2076</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>511</v>
-      </c>
-      <c r="M8" s="7">
-        <v>7</v>
-      </c>
       <c r="N8" s="7">
-        <v>4675</v>
+        <v>2249</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6790,13 +6777,13 @@
         <v>12004</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -6805,13 +6792,13 @@
         <v>9294</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="M9" s="7">
         <v>37</v>
@@ -6820,13 +6807,13 @@
         <v>21298</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6835,49 +6822,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>1282</v>
+        <v>2599</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>201</v>
+        <v>513</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>967</v>
+        <v>2076</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>516</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="M10" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>2249</v>
+        <v>4675</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6933,55 +6920,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>6907</v>
+        <v>4735</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="H12" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>3837</v>
+        <v>4405</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="M12" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N12" s="7">
-        <v>10744</v>
+        <v>9140</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6996,13 +6983,13 @@
         <v>36976</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -7011,13 +6998,13 @@
         <v>20853</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>543</v>
+        <v>242</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="M13" s="7">
         <v>92</v>
@@ -7026,13 +7013,13 @@
         <v>57829</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7041,49 +7028,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>4735</v>
+        <v>6907</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I14" s="7">
-        <v>4405</v>
+        <v>3837</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="M14" s="7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N14" s="7">
-        <v>9140</v>
+        <v>10744</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>556</v>
+        <v>264</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7139,55 +7126,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>8087</v>
+        <v>2394</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>3273</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>201</v>
+        <v>549</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>490</v>
+        <v>412</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="M16" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N16" s="7">
-        <v>8087</v>
+        <v>5667</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7202,13 +7189,13 @@
         <v>19371</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -7217,13 +7204,13 @@
         <v>22048</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>569</v>
+        <v>52</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="M17" s="7">
         <v>62</v>
@@ -7232,13 +7219,13 @@
         <v>41419</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7247,49 +7234,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D18" s="7">
-        <v>2394</v>
+        <v>8087</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="H18" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
-        <v>3273</v>
+        <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>577</v>
+        <v>184</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>578</v>
+        <v>480</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="M18" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N18" s="7">
-        <v>5667</v>
+        <v>8087</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>38</v>
+        <v>567</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7351,49 +7338,49 @@
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="7">
-        <v>3942</v>
+        <v>4148</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>582</v>
+        <v>524</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>583</v>
+        <v>389</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="H20" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I20" s="7">
-        <v>3785</v>
+        <v>2479</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>586</v>
+        <v>263</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="M20" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N20" s="7">
-        <v>7727</v>
+        <v>6627</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7408,13 +7395,13 @@
         <v>19311</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="H21" s="7">
         <v>32</v>
@@ -7426,10 +7413,10 @@
         <v>247</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="M21" s="7">
         <v>62</v>
@@ -7438,13 +7425,13 @@
         <v>41654</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>596</v>
+        <v>110</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7453,49 +7440,49 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22" s="7">
-        <v>4148</v>
+        <v>3942</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>552</v>
+        <v>582</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="H22" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I22" s="7">
-        <v>2479</v>
+        <v>3785</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="M22" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N22" s="7">
-        <v>6627</v>
+        <v>7727</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>606</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7557,49 +7544,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D24" s="7">
-        <v>21535</v>
+        <v>12558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>607</v>
+        <v>590</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>608</v>
+        <v>591</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>43</v>
+        <v>592</v>
       </c>
       <c r="H24" s="7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I24" s="7">
-        <v>10354</v>
+        <v>11665</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="M24" s="7">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="N24" s="7">
-        <v>31889</v>
+        <v>24223</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>530</v>
+        <v>598</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7614,13 +7601,13 @@
         <v>92332</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="H25" s="7">
         <v>120</v>
@@ -7629,13 +7616,13 @@
         <v>77904</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>23</v>
+        <v>602</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="M25" s="7">
         <v>264</v>
@@ -7644,13 +7631,13 @@
         <v>170236</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>620</v>
+        <v>417</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7659,49 +7646,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D26" s="7">
-        <v>12558</v>
+        <v>21535</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>622</v>
+        <v>173</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>623</v>
+        <v>304</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>624</v>
+        <v>429</v>
       </c>
       <c r="H26" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I26" s="7">
-        <v>11665</v>
+        <v>10354</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>609</v>
       </c>
       <c r="M26" s="7">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="N26" s="7">
-        <v>24223</v>
+        <v>31889</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>627</v>
+        <v>610</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>589</v>
+        <v>611</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7753,6 +7740,11 @@
       </c>
       <c r="Q27" s="7" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP18B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP18B-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D46BA11F-E877-4E19-B0DD-3F97C6BD14E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5B7CB3B-7061-41C9-928B-78B03674FD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E60E6A91-2ED0-4CD1-A94A-F69137839851}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{21E789C8-53C6-4D86-B3B5-726F28646F92}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="617">
   <si>
     <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2007 (Tasa respuesta: 87,21%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otros</t>
@@ -77,1807 +77,1819 @@
     <t>10,15%</t>
   </si>
   <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>Pediatria</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>56,29%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>Médico general</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2012 (Tasa respuesta: 94,57%)</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>59,11%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>80,14%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
   </si>
   <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>Pediatria</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>Médico general</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>74,67%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2016 (Tasa respuesta: 91,35%)</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>39,75%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>68,78%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>63,67%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>74,27%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>64,4%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
   </si>
   <si>
     <t>17,93%</t>
   </si>
   <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>74,68%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
   </si>
   <si>
     <t>17,03%</t>
   </si>
   <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2012 (Tasa respuesta: 94,57%)</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>53,82%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>54,15%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>80,14%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2015 (Tasa respuesta: 91,35%)</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>43,77%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>61,26%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>Menores en función de la especialidad del doctor por el que fueron atendidos en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>49,28%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>55,03%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>65,38%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>64,89%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
   </si>
   <si>
     <t>10,36%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
   </si>
   <si>
     <t>14,09%</t>
   </si>
   <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
   </si>
 </sst>
 </file>
@@ -2289,7 +2301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF79910B-3CFE-4675-A1C1-5DDF9FF5F569}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD52A745-5BA3-41C7-8843-F6626C3835FF}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2637,10 +2649,10 @@
         <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -2649,13 +2661,13 @@
         <v>11282</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2670,13 +2682,13 @@
         <v>68666</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>101</v>
@@ -2685,13 +2697,13 @@
         <v>67897</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>204</v>
@@ -2700,13 +2712,13 @@
         <v>136563</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2721,13 +2733,13 @@
         <v>32683</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -2736,13 +2748,13 @@
         <v>22926</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>84</v>
@@ -2751,13 +2763,13 @@
         <v>55609</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,7 +2825,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2825,13 +2837,13 @@
         <v>14961</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -2840,13 +2852,13 @@
         <v>10668</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>40</v>
@@ -2855,13 +2867,13 @@
         <v>25629</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,13 +2888,13 @@
         <v>137996</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>184</v>
@@ -2891,13 +2903,13 @@
         <v>114232</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>394</v>
@@ -2906,13 +2918,13 @@
         <v>252227</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,13 +2939,13 @@
         <v>28349</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>65</v>
@@ -2942,13 +2954,13 @@
         <v>41095</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>108</v>
@@ -2957,13 +2969,13 @@
         <v>69444</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,7 +3031,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3031,13 +3043,13 @@
         <v>4752</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -3046,13 +3058,13 @@
         <v>7968</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -3061,13 +3073,13 @@
         <v>12720</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,13 +3094,13 @@
         <v>109902</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>167</v>
@@ -3097,13 +3109,13 @@
         <v>100572</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>336</v>
@@ -3112,10 +3124,10 @@
         <v>210474</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>114</v>
@@ -3240,10 +3252,10 @@
         <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -3252,13 +3264,13 @@
         <v>9882</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>22</v>
@@ -3267,13 +3279,13 @@
         <v>16109</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,13 +3300,13 @@
         <v>138922</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H21" s="7">
         <v>202</v>
@@ -3303,13 +3315,13 @@
         <v>153383</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M21" s="7">
         <v>408</v>
@@ -3318,13 +3330,13 @@
         <v>292305</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,10 +3351,10 @@
         <v>36156</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>144</v>
@@ -3509,13 +3521,13 @@
         <v>447062</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M25" s="7">
         <v>1374</v>
@@ -3524,13 +3536,13 @@
         <v>916405</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,13 +3557,13 @@
         <v>122407</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H26" s="7">
         <v>170</v>
@@ -3560,13 +3572,13 @@
         <v>115759</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M26" s="7">
         <v>354</v>
@@ -3575,13 +3587,13 @@
         <v>238166</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,7 +3649,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -3658,7 +3670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54D08100-3D0C-400D-8094-ABB87EBE370B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A26AA825-E5C5-40DD-B0D1-433672B75F7D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3675,7 +3687,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3782,13 +3794,13 @@
         <v>2972</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3797,13 +3809,13 @@
         <v>1821</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3812,13 +3824,13 @@
         <v>4793</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +3845,13 @@
         <v>13160</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -3848,13 +3860,13 @@
         <v>11113</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M5" s="7">
         <v>27</v>
@@ -3863,13 +3875,13 @@
         <v>24273</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,13 +3896,13 @@
         <v>8322</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H6" s="7">
         <v>10</v>
@@ -3899,13 +3911,13 @@
         <v>8569</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M6" s="7">
         <v>20</v>
@@ -3914,13 +3926,13 @@
         <v>16890</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,13 +4000,13 @@
         <v>2755</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -4003,13 +4015,13 @@
         <v>7608</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -4018,13 +4030,13 @@
         <v>10363</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4039,13 +4051,13 @@
         <v>89391</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H9" s="7">
         <v>112</v>
@@ -4054,13 +4066,13 @@
         <v>79885</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M9" s="7">
         <v>238</v>
@@ -4069,13 +4081,13 @@
         <v>169276</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4090,13 +4102,13 @@
         <v>30339</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -4105,13 +4117,13 @@
         <v>22480</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="M10" s="7">
         <v>73</v>
@@ -4120,13 +4132,13 @@
         <v>52819</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,7 +4194,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4194,13 +4206,13 @@
         <v>15628</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H12" s="7">
         <v>16</v>
@@ -4212,10 +4224,10 @@
         <v>45</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M12" s="7">
         <v>39</v>
@@ -4224,13 +4236,13 @@
         <v>26125</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>240</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,13 +4257,13 @@
         <v>160314</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H13" s="7">
         <v>239</v>
@@ -4260,13 +4272,13 @@
         <v>153857</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>245</v>
+        <v>140</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="M13" s="7">
         <v>469</v>
@@ -4275,13 +4287,13 @@
         <v>314171</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4296,13 +4308,13 @@
         <v>33137</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -4311,13 +4323,13 @@
         <v>28860</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="M14" s="7">
         <v>93</v>
@@ -4326,13 +4338,13 @@
         <v>61997</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,7 +4400,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4400,13 +4412,13 @@
         <v>12567</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>261</v>
+        <v>179</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -4415,13 +4427,13 @@
         <v>6580</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>262</v>
+        <v>155</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="M16" s="7">
         <v>29</v>
@@ -4430,13 +4442,13 @@
         <v>19147</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4451,13 +4463,13 @@
         <v>127892</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H17" s="7">
         <v>179</v>
@@ -4466,13 +4478,13 @@
         <v>114280</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="M17" s="7">
         <v>375</v>
@@ -4481,13 +4493,13 @@
         <v>242173</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4502,13 +4514,13 @@
         <v>15469</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H18" s="7">
         <v>33</v>
@@ -4517,13 +4529,13 @@
         <v>21740</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M18" s="7">
         <v>57</v>
@@ -4532,13 +4544,13 @@
         <v>37209</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4606,13 +4618,13 @@
         <v>16878</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -4621,13 +4633,13 @@
         <v>8072</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>291</v>
+        <v>159</v>
       </c>
       <c r="M20" s="7">
         <v>35</v>
@@ -4636,13 +4648,13 @@
         <v>24950</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4657,13 +4669,13 @@
         <v>164452</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="H21" s="7">
         <v>221</v>
@@ -4672,13 +4684,13 @@
         <v>168238</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="M21" s="7">
         <v>442</v>
@@ -4687,13 +4699,13 @@
         <v>332690</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>301</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,13 +4720,13 @@
         <v>24225</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -4723,13 +4735,13 @@
         <v>27010</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="M22" s="7">
         <v>68</v>
@@ -4738,13 +4750,13 @@
         <v>51235</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>311</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>87</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,13 +4824,13 @@
         <v>50800</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="H24" s="7">
         <v>50</v>
@@ -4827,13 +4839,13 @@
         <v>34578</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="M24" s="7">
         <v>123</v>
@@ -4842,13 +4854,13 @@
         <v>85378</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,13 +4875,13 @@
         <v>555210</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="H25" s="7">
         <v>764</v>
@@ -4878,13 +4890,13 @@
         <v>527372</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="M25" s="7">
         <v>1551</v>
@@ -4893,13 +4905,13 @@
         <v>1082583</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4914,13 +4926,13 @@
         <v>111492</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="H26" s="7">
         <v>151</v>
@@ -4929,13 +4941,13 @@
         <v>108659</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>279</v>
+        <v>324</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="M26" s="7">
         <v>311</v>
@@ -4944,13 +4956,13 @@
         <v>220151</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5006,7 +5018,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5027,7 +5039,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F82FE522-26A4-4F44-BFAA-9F4749CBCB4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDA94A4-1590-41BF-9DB1-101ABC51F76B}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5044,7 +5056,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5151,13 +5163,13 @@
         <v>1670</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>99</v>
+        <v>330</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -5166,13 +5178,13 @@
         <v>3702</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -5181,13 +5193,13 @@
         <v>5372</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5214,13 @@
         <v>14762</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -5217,13 +5229,13 @@
         <v>11822</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="M5" s="7">
         <v>29</v>
@@ -5232,13 +5244,13 @@
         <v>26584</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5265,13 @@
         <v>9142</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -5268,13 +5280,13 @@
         <v>5324</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="M6" s="7">
         <v>17</v>
@@ -5283,13 +5295,13 @@
         <v>14466</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,13 +5369,13 @@
         <v>6835</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>129</v>
+        <v>357</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -5372,13 +5384,13 @@
         <v>2985</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -5387,13 +5399,13 @@
         <v>9820</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>155</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5420,13 @@
         <v>75498</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="H9" s="7">
         <v>105</v>
@@ -5423,13 +5435,13 @@
         <v>70713</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>371</v>
+        <v>86</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="M9" s="7">
         <v>209</v>
@@ -5438,13 +5450,13 @@
         <v>146210</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,13 +5471,13 @@
         <v>27433</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -5474,13 +5486,13 @@
         <v>29449</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="M10" s="7">
         <v>77</v>
@@ -5489,13 +5501,13 @@
         <v>56881</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,7 +5563,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5563,13 +5575,13 @@
         <v>7866</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>388</v>
+        <v>236</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -5578,13 +5590,13 @@
         <v>10708</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="M12" s="7">
         <v>28</v>
@@ -5593,13 +5605,13 @@
         <v>18574</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,13 +5626,13 @@
         <v>160081</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>396</v>
+        <v>193</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="H13" s="7">
         <v>247</v>
@@ -5629,13 +5641,13 @@
         <v>151098</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>392</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M13" s="7">
         <v>487</v>
@@ -5644,13 +5656,13 @@
         <v>311179</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,13 +5677,13 @@
         <v>41416</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H14" s="7">
         <v>49</v>
@@ -5680,13 +5692,13 @@
         <v>32631</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>407</v>
+        <v>201</v>
       </c>
       <c r="M14" s="7">
         <v>108</v>
@@ -5695,13 +5707,13 @@
         <v>74046</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,7 +5769,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5769,13 +5781,13 @@
         <v>11188</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -5784,13 +5796,13 @@
         <v>6779</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>43</v>
+        <v>408</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>409</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -5799,13 +5811,13 @@
         <v>17967</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,13 +5832,13 @@
         <v>101333</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H17" s="7">
         <v>167</v>
@@ -5835,13 +5847,13 @@
         <v>96524</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="M17" s="7">
         <v>323</v>
@@ -5850,13 +5862,13 @@
         <v>197856</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5871,13 +5883,13 @@
         <v>33425</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H18" s="7">
         <v>52</v>
@@ -5886,13 +5898,13 @@
         <v>34308</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="M18" s="7">
         <v>97</v>
@@ -5901,13 +5913,13 @@
         <v>67732</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>433</v>
+        <v>92</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,13 +5987,13 @@
         <v>13102</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -5990,13 +6002,13 @@
         <v>5494</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="M20" s="7">
         <v>25</v>
@@ -6005,13 +6017,13 @@
         <v>18595</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6026,13 +6038,13 @@
         <v>143288</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>224</v>
+        <v>436</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H21" s="7">
         <v>210</v>
@@ -6041,13 +6053,13 @@
         <v>153232</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="M21" s="7">
         <v>412</v>
@@ -6056,13 +6068,13 @@
         <v>296520</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,13 +6089,13 @@
         <v>28574</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="H22" s="7">
         <v>44</v>
@@ -6092,13 +6104,13 @@
         <v>33922</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="M22" s="7">
         <v>84</v>
@@ -6107,13 +6119,13 @@
         <v>62496</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6181,13 +6193,13 @@
         <v>40659</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>213</v>
+        <v>454</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="H24" s="7">
         <v>43</v>
@@ -6196,13 +6208,13 @@
         <v>29668</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>104</v>
+        <v>457</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="M24" s="7">
         <v>99</v>
@@ -6211,13 +6223,13 @@
         <v>70328</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>100</v>
+        <v>461</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,13 +6244,13 @@
         <v>494960</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="H25" s="7">
         <v>741</v>
@@ -6247,13 +6259,13 @@
         <v>483388</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>141</v>
+        <v>465</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>467</v>
+        <v>239</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="M25" s="7">
         <v>1460</v>
@@ -6262,13 +6274,13 @@
         <v>978349</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,10 +6295,10 @@
         <v>139989</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>472</v>
@@ -6375,7 +6387,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -6396,7 +6408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4254B4-DBE0-40A2-9B25-AD38924326C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2666EB-4D4A-4CD6-BB23-F721C6EAED1D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6520,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>480</v>
@@ -6538,7 +6550,7 @@
         <v>482</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>483</v>
@@ -6553,7 +6565,7 @@
         <v>484</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>485</v>
@@ -6622,7 +6634,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>480</v>
@@ -6640,7 +6652,7 @@
         <v>492</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>493</v>
@@ -6655,7 +6667,7 @@
         <v>494</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>495</v>
@@ -6729,7 +6741,7 @@
         <v>496</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>497</v>
@@ -6744,7 +6756,7 @@
         <v>498</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>499</v>
@@ -6920,7 +6932,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6998,13 +7010,13 @@
         <v>20853</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>242</v>
+        <v>533</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M13" s="7">
         <v>92</v>
@@ -7013,13 +7025,13 @@
         <v>57829</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7034,13 +7046,13 @@
         <v>6907</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -7049,13 +7061,13 @@
         <v>3837</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
@@ -7064,13 +7076,13 @@
         <v>10744</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>264</v>
+        <v>546</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7126,7 +7138,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7138,13 +7150,13 @@
         <v>2394</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -7153,13 +7165,13 @@
         <v>3273</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>412</v>
+        <v>552</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -7168,13 +7180,13 @@
         <v>5667</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>551</v>
+        <v>47</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>552</v>
+        <v>158</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7189,13 +7201,13 @@
         <v>19371</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H17" s="7">
         <v>32</v>
@@ -7204,13 +7216,13 @@
         <v>22048</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>52</v>
+        <v>559</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="M17" s="7">
         <v>62</v>
@@ -7219,13 +7231,13 @@
         <v>41419</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7240,13 +7252,13 @@
         <v>8087</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -7255,13 +7267,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>480</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -7270,13 +7282,13 @@
         <v>8087</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7347,10 +7359,10 @@
         <v>524</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>389</v>
+        <v>571</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -7359,13 +7371,13 @@
         <v>2479</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>263</v>
+        <v>43</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -7374,13 +7386,13 @@
         <v>6627</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>573</v>
+        <v>71</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>574</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7395,13 +7407,13 @@
         <v>19311</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H21" s="7">
         <v>32</v>
@@ -7410,13 +7422,13 @@
         <v>22343</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M21" s="7">
         <v>62</v>
@@ -7425,13 +7437,13 @@
         <v>41654</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>110</v>
+        <v>581</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7446,13 +7458,13 @@
         <v>3942</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -7461,13 +7473,13 @@
         <v>3785</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>586</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -7476,13 +7488,13 @@
         <v>7727</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>174</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7550,13 +7562,13 @@
         <v>12558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>592</v>
+        <v>246</v>
       </c>
       <c r="H24" s="7">
         <v>18</v>
@@ -7634,10 +7646,10 @@
         <v>605</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>417</v>
+        <v>606</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7652,13 +7664,13 @@
         <v>21535</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>173</v>
+        <v>608</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>304</v>
+        <v>609</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>429</v>
+        <v>610</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -7667,13 +7679,13 @@
         <v>10354</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="M26" s="7">
         <v>42</v>
@@ -7682,13 +7694,13 @@
         <v>31889</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7744,7 +7756,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
